--- a/GuideLines.xlsx
+++ b/GuideLines.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Stationary</t>
   </si>
@@ -40,16 +40,56 @@
   </si>
   <si>
     <t>Difference between the number of advancing/declining issues</t>
+  </si>
+  <si>
+    <t>10-Year Rate-of-Change</t>
+  </si>
+  <si>
+    <t>Graph of 10-Year Returns</t>
+  </si>
+  <si>
+    <t>http://www.theforecastingadvisor.com/</t>
+  </si>
+  <si>
+    <t>Probability of a bear Market</t>
+  </si>
+  <si>
+    <t>Spread Smart Money Index and DJIA</t>
+  </si>
+  <si>
+    <t>Cycle Bonds-Stocks-Commodities</t>
+  </si>
+  <si>
+    <t>Leading Indicators - Conference Boards</t>
+  </si>
+  <si>
+    <t>SP 500 P/E Ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,13 +112,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,30 +470,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C4"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
     <col min="3" max="3" width="56.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -469,8 +514,48 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
